--- a/different_costs-rand-single_destination-100nodes-80_300flows.xlsx
+++ b/different_costs-rand-single_destination-100nodes-80_300flows.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Dropbox\doutorado\Doutorado\A-orientacao-kleber\artigo1-katia-leizer-kleber\resultados\resultados-custos-diferentes\data\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B50E809-C549-43CE-8CF4-3B253EECD1AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4BEF5A2C-9730-4F4B-A82A-791B99099A74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="different_costs-rand-single_d" sheetId="1" r:id="rId1"/>
+    <sheet name="graphics" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -638,6 +642,1470 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>The smallest  bottleneck   </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Random topology; n=100; multiple sources and  single destination)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5607119461764969E-2"/>
+          <c:y val="0.18348388743073782"/>
+          <c:w val="0.74280848675640421"/>
+          <c:h val="0.65329068241469812"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]bar-oq-mdest'!$N$499</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r  =  80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]bar-oq-mdest'!$M$500:$M$521</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]bar-oq-mdest'!$N$500:$N$513</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38A1-4323-8206-FB540C6EB8CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]bar-oq-mdest'!$O$499</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r = 300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]bar-oq-mdest'!$M$500:$M$521</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]bar-oq-mdest'!$O$500:$O$521</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38A1-4323-8206-FB540C6EB8CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="253030400"/>
+        <c:axId val="253032320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="253030400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253032320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253032320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="253030400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>283566</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D91AAEB-9EBA-436E-91A3-5D038218382E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607786" y="181429"/>
+          <a:ext cx="11223709" cy="4078577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9717</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927A6C5F-C45A-450B-A853-6F8101432675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12763500" y="181429"/>
+          <a:ext cx="9126503" cy="5023539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>595237</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435DD509-1CA0-49A3-957D-5E6A9CA9F562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>226448</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE983FF-CE9B-40FA-A02C-855975590711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607786" y="5624286"/>
+          <a:ext cx="4480948" cy="2737341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130771</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>86770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A73CFD-0C7E-40E8-8509-A17334D444EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5470071" y="5687806"/>
+          <a:ext cx="4993057" cy="3651821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266267</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>77663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CD0547-25CE-478A-8DD7-BAF41D00E191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607786" y="9978571"/>
+          <a:ext cx="7559695" cy="5157663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>307075</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E5668C-75BC-4CFA-AF9E-F2AB333561FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509000" y="9978571"/>
+          <a:ext cx="6992718" cy="5163760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>507765</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1E71FC-81DE-4306-ABE4-133277718B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29173714" y="181429"/>
+          <a:ext cx="9016765" cy="4017612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35857</cdr:x>
+      <cdr:y>0.90799</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.49912</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="CaixaDeTexto 4">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC32B19-B91C-4106-BC5F-4FB7185A1555}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="1511299" y="2490787"/>
+              <a:ext cx="592394" cy="252413"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-BR" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑧</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>1 </m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>( </m:t>
+                    </m:r>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t> )</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="CaixaDeTexto 4"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="1511299" y="2490787"/>
+              <a:ext cx="592394" cy="252413"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑧_(1 )^𝑓 ( 𝑥 ̅  )</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="bar-oriq-destq"/>
+      <sheetName val="Planilha2"/>
+      <sheetName val="Planilha1"/>
+      <sheetName val="bar-oq-mdest"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="499">
+          <cell r="N499" t="str">
+            <v>r  =  80</v>
+          </cell>
+          <cell r="O499" t="str">
+            <v>r = 300</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="M500">
+            <v>3</v>
+          </cell>
+          <cell r="N500">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="M501">
+            <v>5</v>
+          </cell>
+          <cell r="N501">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="M502">
+            <v>6</v>
+          </cell>
+          <cell r="N502">
+            <v>6.0000000000000005E-2</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="M503">
+            <v>8</v>
+          </cell>
+          <cell r="N503">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="M504">
+            <v>9</v>
+          </cell>
+          <cell r="N504">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="M505">
+            <v>10</v>
+          </cell>
+          <cell r="N505">
+            <v>0.12</v>
+          </cell>
+          <cell r="O505">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="M506">
+            <v>12</v>
+          </cell>
+          <cell r="N506">
+            <v>0.18</v>
+          </cell>
+          <cell r="O506">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="M507">
+            <v>14</v>
+          </cell>
+          <cell r="N507">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="O507">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="M508">
+            <v>16</v>
+          </cell>
+          <cell r="N508">
+            <v>0.58000000000000007</v>
+          </cell>
+          <cell r="O508">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="M509">
+            <v>18</v>
+          </cell>
+          <cell r="N509">
+            <v>0.58000000000000007</v>
+          </cell>
+          <cell r="O509">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="M510">
+            <v>20</v>
+          </cell>
+          <cell r="N510">
+            <v>0.65000000000000013</v>
+          </cell>
+          <cell r="O510">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="M511">
+            <v>24</v>
+          </cell>
+          <cell r="N511">
+            <v>0.65000000000000013</v>
+          </cell>
+          <cell r="O511">
+            <v>6.0000000000000005E-2</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="M512">
+            <v>25</v>
+          </cell>
+          <cell r="N512">
+            <v>0.65000000000000013</v>
+          </cell>
+          <cell r="O512">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="M513">
+            <v>27</v>
+          </cell>
+          <cell r="N513">
+            <v>1</v>
+          </cell>
+          <cell r="O513">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="M514">
+            <v>30</v>
+          </cell>
+          <cell r="O514">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="M515">
+            <v>34</v>
+          </cell>
+          <cell r="O515">
+            <v>0.11</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="M516">
+            <v>38</v>
+          </cell>
+          <cell r="O516">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="M517">
+            <v>43</v>
+          </cell>
+          <cell r="O517">
+            <v>0.15</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="M518">
+            <v>50</v>
+          </cell>
+          <cell r="O518">
+            <v>0.32999999999999996</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="M519">
+            <v>60</v>
+          </cell>
+          <cell r="O519">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="M520">
+            <v>75</v>
+          </cell>
+          <cell r="O520">
+            <v>0.66999999999999993</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="M521">
+            <v>100</v>
+          </cell>
+          <cell r="O521">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -937,7 +2405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6318,4 +7786,19 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD44100-9730-41AE-BE86-B24556A0035E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY26" sqref="AY26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/different_costs-rand-single_destination-100nodes-80_300flows.xlsx
+++ b/different_costs-rand-single_destination-100nodes-80_300flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4BEF5A2C-9730-4F4B-A82A-791B99099A74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6BE043D-ECDC-4DB6-8F1C-8D59798373A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1464,15 +1464,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>507765</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>26184</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>153979</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1495,7 +1495,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29173714" y="181429"/>
+          <a:off x="29427714" y="145144"/>
           <a:ext cx="9016765" cy="4017612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1885,7 +1885,13 @@
       <sheetName val="bar-oq-mdest"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="114">
+          <cell r="AD114" t="str">
+            <v>z^o_2(x)</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
@@ -7793,7 +7799,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY26" sqref="AY26"/>
+      <selection activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
